--- a/biology/Médecine/Extraction_du_fœtus/Extraction_du_fœtus.xlsx
+++ b/biology/Médecine/Extraction_du_fœtus/Extraction_du_fœtus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Extraction_du_f%C5%93tus</t>
+          <t>Extraction_du_fœtus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'extraction du fœtus désigne l'ensemble des manœuvres avec ou sans instruments aboutissant à la naissance du fœtus
 Ce terme est classiquement réservé à la naissance par les voies naturelles bien que certaines de ces techniques puissent être appliquées lors d'une naissance par opération césarienne
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Extraction_du_f%C5%93tus</t>
+          <t>Extraction_du_fœtus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,16 +524,15 @@
           <t>Extraction instrumentale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Quatre conditions sont nécessaires pour faire une extraction instrumentale :
 la présentation doit être céphalique,
 les membranes doivent être rompues,
 la présentation doit être engagée,
-la dilatation doit être complète.
-Ventouse obstétricale
-Forceps
-Spatules</t>
+la dilatation doit être complète.</t>
         </is>
       </c>
     </row>
@@ -531,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Extraction_du_f%C5%93tus</t>
+          <t>Extraction_du_fœtus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,10 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Manœuvre propre à l'accouchement en présentation de siège
-Manœuvre propre à la dystocie des épaules
-Version par manœuvre interne
- Portail de la médecine                     </t>
+          <t>Version par manœuvre interne</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Portail de la médecine                     </t>
         </is>
       </c>
     </row>
